--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P10_trail7 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P10_trail7 Features.xlsx
@@ -4434,7 +4434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4445,29 +4445,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4488,115 +4486,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4613,72 +4601,66 @@
         <v>5.733880189912646e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.7277715443316083</v>
+        <v>1.835765242904753e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-1.105809557156612</v>
+        <v>3.530875698837715e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.835765242904753e-06</v>
+        <v>0.04347571390473143</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3.530875698837715e-06</v>
+        <v>0.07734230795569526</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.04347571390473143</v>
+        <v>0.007869848456471897</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.07734230795569526</v>
+        <v>1.577882147455062</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.007869848456471897</v>
+        <v>1.457796657917967</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.476982090114743</v>
+        <v>4.576663740220702</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.457796657917967</v>
+        <v>6.370906609960113e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.576663740220702</v>
+        <v>39207546.16123901</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>6.370906609960113e-15</v>
+        <v>2.750731429728604e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>39207546.16123901</v>
+        <v>9.793559445577284</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>2.750731429728604e-06</v>
+        <v>0.0001408621145977586</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>9.793559445577284</v>
+        <v>10.51733893955808</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001408621145977586</v>
+        <v>1.311061438287813</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>10.51733893955808</v>
+        <v>0.0155813808765352</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.311061438287813</v>
+        <v>2.963313776870192</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.0155813808765352</v>
+        <v>0.9424474796913515</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.963313776870192</v>
+        <v>1.846999478518543</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9424474796913515</v>
+        <v>13</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.846999478518543</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2136438768952894</v>
       </c>
     </row>
@@ -4693,72 +4675,66 @@
         <v>5.524386557973664e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.7721012428309467</v>
+        <v>1.739424482672187e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.050047523483786</v>
+        <v>3.554964228806826e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.739424482672187e-06</v>
+        <v>0.04223164110719693</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3.554964228806826e-06</v>
+        <v>0.07864814939084029</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.04223164110719693</v>
+        <v>0.007967799786576349</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.07864814939084029</v>
+        <v>1.570463215113322</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.007967799786576349</v>
+        <v>1.512889104529234</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.472319025102423</v>
+        <v>4.610533282614903</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.512889104529234</v>
+        <v>5.612564601316789e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.610533282614903</v>
+        <v>44310127.67362663</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>5.612564601316789e-15</v>
+        <v>2.421508628124804e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>44310127.67362663</v>
+        <v>11.01963870103032</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.421508628124804e-06</v>
+        <v>0.0001388703944015876</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>11.01963870103032</v>
+        <v>9.574912398873359</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001388703944015876</v>
+        <v>1.333680613660024</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.574912398873359</v>
+        <v>0.01273149159016216</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.333680613660024</v>
+        <v>3.122956091283825</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01273149159016216</v>
+        <v>0.9399443859118521</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.122956091283825</v>
+        <v>1.875818443440753</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9399443859118521</v>
+        <v>19</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.875818443440753</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2064157350784884</v>
       </c>
     </row>
@@ -4773,72 +4749,66 @@
         <v>5.327454055826501e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.8240073328241201</v>
+        <v>1.666276549745785e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.9656085468192153</v>
+        <v>3.577628792999529e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.666276549745785e-06</v>
+        <v>0.04133159467056969</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>3.577628792999529e-06</v>
+        <v>0.0809121971032583</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.04133159467056969</v>
+        <v>0.008254317553805528</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.0809121971032583</v>
+        <v>1.631318695993669</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.008254317553805528</v>
+        <v>1.473003387923124</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.526201116754636</v>
+        <v>4.639033083957987</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.473003387923124</v>
+        <v>5.543815089454391e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.639033083957987</v>
+        <v>43156546.79828675</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>5.543815089454391e-15</v>
+        <v>2.594956515037082e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>43156546.79828675</v>
+        <v>10.3252864813426</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>2.594956515037082e-06</v>
+        <v>0.0001146740184518133</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>10.3252864813426</v>
+        <v>7.116454599804245</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001146740184518133</v>
+        <v>1.58940889324502</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>7.116454599804245</v>
+        <v>0.005807542512746722</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.58940889324502</v>
+        <v>3.3976569471082</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.005807542512746722</v>
+        <v>0.9460949307469575</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.3976569471082</v>
+        <v>1.799512871318116</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9460949307469575</v>
+        <v>18</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.799512871318116</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.2219914847297884</v>
       </c>
     </row>
@@ -4853,72 +4823,66 @@
         <v>5.136827403184482e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.8808388348687175</v>
+        <v>1.607320364975091e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.8572298300926464</v>
+        <v>3.599017102081427e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.607320364975091e-06</v>
+        <v>0.04042522233989774</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>3.599017102081427e-06</v>
+        <v>0.08391353686817478</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.04042522233989774</v>
+        <v>0.008675072512830449</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.08391353686817478</v>
+        <v>1.662812355366953</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.008675072512830449</v>
+        <v>1.607944974482017</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.556521283767971</v>
+        <v>4.232387135083689</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.607944974482017</v>
+        <v>3.658660447661491e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.232387135083689</v>
+        <v>68517460.8026285</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>3.658660447661491e-15</v>
+        <v>1.662474471031828e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>68517460.8026285</v>
+        <v>17.17610259226137</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.662474471031828e-06</v>
+        <v>0.0001113372357710765</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>17.17610259226137</v>
+        <v>7.557611404697909</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001113372357710765</v>
+        <v>1.516782726794503</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>7.557611404697909</v>
+        <v>0.006359303466861417</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.516782726794503</v>
+        <v>3.405877134325699</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.006359303466861417</v>
+        <v>0.9458874644323746</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.405877134325699</v>
+        <v>1.752767776798897</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9458874644323746</v>
+        <v>18</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.752767776798897</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.2234261058388625</v>
       </c>
     </row>
@@ -4933,72 +4897,66 @@
         <v>4.949319124100705e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.9410547958919773</v>
+        <v>1.555813896562272e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.726129084843584</v>
+        <v>3.619175581732843e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.555813896562272e-06</v>
+        <v>0.03950156690145478</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>3.619175581732843e-06</v>
+        <v>0.08738198685292965</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.03950156690145478</v>
+        <v>0.009195400025130859</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.08738198685292965</v>
+        <v>1.689060164242758</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.009195400025130859</v>
+        <v>1.767387217110459</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.584741208591126</v>
+        <v>4.247251361689606</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.767387217110459</v>
+        <v>3.633096622871606e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.247251361689606</v>
+        <v>68995636.59224445</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>3.633096622871606e-15</v>
+        <v>1.664867178237104e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>68995636.59224445</v>
+        <v>17.29498542055006</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.664867178237104e-06</v>
+        <v>0.0001218859016599881</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>17.29498542055006</v>
+        <v>9.700219226671212</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001218859016599881</v>
+        <v>1.349937002494663</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.700219226671212</v>
+        <v>0.01146876287347164</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.349937002494663</v>
+        <v>3.269542302200294</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01146876287347164</v>
+        <v>0.9473714831913006</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.269542302200294</v>
+        <v>1.774654403537327</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9473714831913006</v>
+        <v>15</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.774654403537327</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.2213636673237811</v>
       </c>
     </row>
@@ -5013,72 +4971,66 @@
         <v>4.763502649355656e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-1.003582843789516</v>
+        <v>1.510014564899231e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.5719131212188584</v>
+        <v>3.638115849975186e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.510014564899231e-06</v>
+        <v>0.03847627987406234</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>3.638115849975186e-06</v>
+        <v>0.09136979281740738</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.03847627987406234</v>
+        <v>0.009828272621128021</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.09136979281740738</v>
+        <v>1.698309924666138</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.009828272621128021</v>
+        <v>1.675751728247941</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.5973077582163</v>
+        <v>4.166449051837795</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.675751728247941</v>
+        <v>3.775380475791586e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.166449051837795</v>
+        <v>68211063.30003522</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>3.775380475791586e-15</v>
+        <v>1.693925613398328e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>68211063.30003522</v>
+        <v>17.56589832428671</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.693925613398328e-06</v>
+        <v>0.0001299319707741972</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>17.56589832428671</v>
+        <v>11.52148363648467</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001299319707741972</v>
+        <v>1.203997868953142</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>11.52148363648467</v>
+        <v>0.01724776556279223</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.203997868953142</v>
+        <v>3.073532800046205</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01724776556279223</v>
+        <v>0.9482103537914539</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.073532800046205</v>
+        <v>1.764065501976706</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9482103537914539</v>
+        <v>15</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.764065501976706</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.2301491290756657</v>
       </c>
     </row>
@@ -5093,72 +5045,66 @@
         <v>4.578056642562269e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-1.066840643876278</v>
+        <v>1.470963066421506e-06</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.395308157505839</v>
+        <v>3.655840174863162e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.470963066421506e-06</v>
+        <v>0.03739492677814254</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>3.655840174863162e-06</v>
+        <v>0.09597048523169148</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.03739492677814254</v>
+        <v>0.01060809678930264</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.09597048523169148</v>
+        <v>1.702058323943289</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.01060809678930264</v>
+        <v>1.673053049496463</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.603395229547998</v>
+        <v>4.263595827685487</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.673053049496463</v>
+        <v>3.605295110613575e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.263595827685487</v>
+        <v>72494378.52808425</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>3.605295110613575e-15</v>
+        <v>1.59730778551543e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>72494378.52808425</v>
+        <v>18.94739381463755</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>1.59730778551543e-06</v>
+        <v>0.0001170426859719623</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>18.94739381463755</v>
+        <v>10.86618227734198</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001170426859719623</v>
+        <v>1.211582341244805</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>10.86618227734198</v>
+        <v>0.01381968842219992</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.211582341244805</v>
+        <v>3.173582661133754</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01381968842219992</v>
+        <v>0.9485215592329004</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.173582661133754</v>
+        <v>1.746702805483494</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9485215592329004</v>
+        <v>15</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.746702805483494</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.2402554734545908</v>
       </c>
     </row>
@@ -5173,72 +5119,66 @@
         <v>4.391545277469955e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-1.128442324952148</v>
+        <v>1.438764797174537e-06</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.1995915294349215</v>
+        <v>3.672372079583483e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.438764797174537e-06</v>
+        <v>0.03631923796966992</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>3.672372079583483e-06</v>
+        <v>0.1012154566845416</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.03631923796966992</v>
+        <v>0.01156302885171323</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1012154566845416</v>
+        <v>1.691770543110451</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.01156302885171323</v>
+        <v>1.661075980683882</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.589611953520555</v>
+        <v>4.422179544673103</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.661075980683882</v>
+        <v>3.351352685102571e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.422179544673103</v>
+        <v>76491471.92801373</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>3.351352685102571e-15</v>
+        <v>1.507536172652965e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>76491471.92801373</v>
+        <v>19.6085811668554</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.507536172652965e-06</v>
+        <v>0.0001161139732518246</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>19.6085811668554</v>
+        <v>8.078692038380449</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001161139732518246</v>
+        <v>1.645456042802373</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>8.078692038380449</v>
+        <v>0.007578209240404091</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.645456042802373</v>
+        <v>3.40964084227478</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.007578209240404091</v>
+        <v>0.9489899398433378</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.40964084227478</v>
+        <v>1.780242339086063</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9489899398433378</v>
+        <v>15</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.780242339086063</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.2235495194707073</v>
       </c>
     </row>
@@ -5253,72 +5193,66 @@
         <v>4.202886782961672e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-1.185426571084704</v>
+        <v>1.411713970809585e-06</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>0.009194472947398946</v>
+        <v>3.687768200388738e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1.411713970809585e-06</v>
+        <v>0.03532662874161015</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>3.687768200388738e-06</v>
+        <v>0.1070142991541962</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.03532662874161015</v>
+        <v>0.01269939917599999</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.1070142991541962</v>
+        <v>1.736015940000936</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.01269939917599999</v>
+        <v>1.685041565720755</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.636576884565442</v>
+        <v>4.53016343168143</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.685041565720755</v>
+        <v>3.193486882311828e-15</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.53016343168143</v>
+        <v>79381086.14423636</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>3.193486882311828e-15</v>
+        <v>1.470082002405557e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>79381086.14423636</v>
+        <v>20.12330040112635</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>1.470082002405557e-06</v>
+        <v>0.0001316116649195579</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>20.12330040112635</v>
+        <v>7.887752106794496</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001316116649195579</v>
+        <v>1.84566308046217</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>7.887752106794496</v>
+        <v>0.008188434694071104</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.84566308046217</v>
+        <v>3.365483909752053</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.008188434694071104</v>
+        <v>0.9537983518212442</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.365483909752053</v>
+        <v>1.737496973660191</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9537983518212442</v>
+        <v>27</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.737496973660191</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.2110263003910653</v>
       </c>
     </row>
@@ -5333,72 +5267,66 @@
         <v>4.011677087733315e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-1.23439130427342</v>
+        <v>1.388065133446954e-06</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0.2220614270262793</v>
+        <v>3.70209708699087e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1.388065133446954e-06</v>
+        <v>0.03444981334643477</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>3.70209708699087e-06</v>
+        <v>0.1133318463286496</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.03444981334643477</v>
+        <v>0.01403030673208262</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1133318463286496</v>
+        <v>1.74908128249193</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.01403030673208262</v>
+        <v>1.769317468961636</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.653892736638364</v>
+        <v>4.601006654199942</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.769317468961636</v>
+        <v>3.095901637841638e-15</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.601006654199942</v>
+        <v>80649409.94538733</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>3.095901637841638e-15</v>
+        <v>1.451490311075368e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>80649409.94538733</v>
+        <v>20.13675761709885</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>1.451490311075368e-06</v>
+        <v>0.0001332465008869679</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>20.13675761709885</v>
+        <v>10.0339048365849</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001332465008869679</v>
+        <v>1.274216508308694</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>10.0339048365849</v>
+        <v>0.01341515727736708</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.274216508308694</v>
+        <v>3.19122108306652</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01341515727736708</v>
+        <v>0.9511136885108341</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.19122108306652</v>
+        <v>1.701745541618228</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9511136885108341</v>
+        <v>27</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.701745541618228</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.2225447740763917</v>
       </c>
     </row>
@@ -5413,72 +5341,66 @@
         <v>3.817656924963459e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-1.271028846089584</v>
+        <v>1.366642536353441e-06</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>0.4248472305552964</v>
+        <v>3.715442371982577e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1.366642536353441e-06</v>
+        <v>0.03372597373724044</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>3.715442371982577e-06</v>
+        <v>0.1201902912867123</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.03372597373724044</v>
+        <v>0.0155825817373374</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1201902912867123</v>
+        <v>1.754975601086857</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.0155825817373374</v>
+        <v>1.71445273512472</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.663598973868421</v>
+        <v>4.534312100154597</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.71445273512472</v>
+        <v>3.187645794579556e-15</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.534312100154597</v>
+        <v>74559533.44208275</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>3.187645794579556e-15</v>
+        <v>1.554847025722263e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>74559533.44208275</v>
+        <v>17.72051832653485</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>1.554847025722263e-06</v>
+        <v>0.0001436808447791966</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>17.72051832653485</v>
+        <v>11.7338723599958</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001436808447791966</v>
+        <v>1.114093547787053</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>11.7338723599958</v>
+        <v>0.01978251902973419</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.114093547787053</v>
+        <v>2.957842345522387</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.01978251902973419</v>
+        <v>0.9521454495154847</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.957842345522387</v>
+        <v>1.70926799780944</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9521454495154847</v>
+        <v>26</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.70926799780944</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.2265922238689894</v>
       </c>
     </row>
@@ -5493,72 +5415,66 @@
         <v>3.621400363963715e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-1.290242917687117</v>
+        <v>1.343156744501473e-06</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>0.5978323977548539</v>
+        <v>3.727862002970901e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1.343156744501473e-06</v>
+        <v>0.03302534901698325</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>3.727862002970901e-06</v>
+        <v>0.1276056075481076</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.03302534901698325</v>
+        <v>0.01737325046670583</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1276056075481076</v>
+        <v>1.760379627404444</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.01737325046670583</v>
+        <v>1.796579589335103</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.675250681624673</v>
+        <v>4.398976815754242</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.796579589335103</v>
+        <v>3.386799839275126e-15</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.398976815754242</v>
+        <v>70443055.0736655</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>3.386799839275126e-15</v>
+        <v>1.652520081383511e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>70443055.0736655</v>
+        <v>16.8060594731191</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>1.652520081383511e-06</v>
+        <v>0.000132859669689577</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>16.8060594731191</v>
+        <v>11.46497994671369</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.000132859669689577</v>
+        <v>1.114741998610215</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>11.46497994671369</v>
+        <v>0.01746384094371548</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.114741998610215</v>
+        <v>3.04907111603907</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01746384094371548</v>
+        <v>0.9534814520484139</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.04907111603907</v>
+        <v>1.733058297779358</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9534814520484139</v>
+        <v>23</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.733058297779358</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.2347489032154314</v>
       </c>
     </row>
@@ -5573,72 +5489,66 @@
         <v>3.425171490079444e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-1.28715119145914</v>
+        <v>1.313694644501881e-06</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>0.7189418375156129</v>
+        <v>3.739363303461091e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1.313694644501881e-06</v>
+        <v>0.03222708714443186</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>3.739363303461091e-06</v>
+        <v>0.1354801476499987</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.03222708714443186</v>
+        <v>0.01939268832859808</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1354801476499987</v>
+        <v>1.776692767235387</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.01939268832859808</v>
+        <v>1.638346528727015</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.697453697569753</v>
+        <v>4.211917015919843</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.638346528727015</v>
+        <v>3.694309396761513e-15</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.211917015919843</v>
+        <v>64482610.80112683</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>3.694309396761513e-15</v>
+        <v>1.809575647082123e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>64482610.80112683</v>
+        <v>15.36096468555491</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>1.809575647082123e-06</v>
+        <v>0.0001249560181991537</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>15.36096468555491</v>
+        <v>10.08542766286534</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001249560181991537</v>
+        <v>1.319396573819779</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>10.08542766286534</v>
+        <v>0.0127100077465533</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.319396573819779</v>
+        <v>3.307316529698806</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.0127100077465533</v>
+        <v>0.9540605150070233</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.307316529698806</v>
+        <v>1.722099420416725</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9540605150070233</v>
+        <v>22</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.722099420416725</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.2368707819687378</v>
       </c>
     </row>
@@ -5653,72 +5563,66 @@
         <v>3.232649266082881e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-1.258427727864393</v>
+        <v>1.275069360192173e-06</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>0.7693957548806987</v>
+        <v>3.749929976913651e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.275069360192173e-06</v>
+        <v>0.03119559322218889</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>3.749929976913651e-06</v>
+        <v>0.1435837429636223</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.03119559322218889</v>
+        <v>0.02158823514853743</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1435837429636223</v>
+        <v>1.765844646257587</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.02158823514853743</v>
+        <v>1.557278763057483</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.691465036198871</v>
+        <v>4.307451365225925</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.557278763057483</v>
+        <v>3.532255511757924e-15</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.307451365225925</v>
+        <v>66848005.94989121</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>3.532255511757924e-15</v>
+        <v>1.742089477446439e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>66848005.94989121</v>
+        <v>15.78443443107611</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>1.742089477446439e-06</v>
+        <v>0.0001330980381432416</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>15.78443443107611</v>
+        <v>10.37331658271281</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001330980381432416</v>
+        <v>1.515615478921641</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>10.37331658271281</v>
+        <v>0.01432210715377831</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.515615478921641</v>
+        <v>3.389622907258003</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01432210715377831</v>
+        <v>0.9531908406577231</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.389622907258003</v>
+        <v>1.708382277506111</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9531908406577231</v>
+        <v>22</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.708382277506111</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.2615986048342824</v>
       </c>
     </row>
@@ -5733,72 +5637,66 @@
         <v>3.048724473296016e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-1.203278318668734</v>
+        <v>1.228292700421679e-06</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>0.7391280914048779</v>
+        <v>3.759503145940552e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.228292700421679e-06</v>
+        <v>0.02969397167458844</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>3.759503145940552e-06</v>
+        <v>0.1517893218851047</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.02969397167458844</v>
+        <v>0.02392001308136844</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1517893218851047</v>
+        <v>1.781165444451406</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.02392001308136844</v>
+        <v>1.68144575175704</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.712146693443527</v>
+        <v>4.166662073131689</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.68144575175704</v>
+        <v>2.948135674454328e-15</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.166662073131689</v>
+        <v>79600757.89261311</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>2.948135674454328e-15</v>
+        <v>1.470087615719276e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>79600757.89261311</v>
+        <v>18.68021504848777</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>1.470087615719276e-06</v>
+        <v>0.0001657343569056924</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>18.68021504848777</v>
+        <v>12.14338301373703</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001657343569056924</v>
+        <v>1.342416544540371</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>12.14338301373703</v>
+        <v>0.02443947847320811</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.342416544540371</v>
+        <v>3.19716071298744</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.02443947847320811</v>
+        <v>0.9559403949526371</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.19716071298744</v>
+        <v>1.705731915480662</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9559403949526371</v>
+        <v>22</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.705731915480662</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.3006965135304113</v>
       </c>
     </row>
@@ -5813,72 +5711,66 @@
         <v>2.877372228945252e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-1.121635213400171</v>
+        <v>1.178787740014728e-06</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>0.6194621260418245</v>
+        <v>3.768034219029799e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.178787740014728e-06</v>
+        <v>0.02790608375589477</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>3.768034219029799e-06</v>
+        <v>0.1600390664283294</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.02790608375589477</v>
+        <v>0.02638947318557645</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1600390664283294</v>
+        <v>1.788223138073458</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.02638947318557645</v>
+        <v>1.783434004714069</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.71886482058068</v>
+        <v>3.997524633175856</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.783434004714069</v>
+        <v>3.20288781964712e-15</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>3.997524633175856</v>
+        <v>73313864.36920583</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>3.20288781964712e-15</v>
+        <v>1.602903005013737e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>73313864.36920583</v>
+        <v>17.21527447538826</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>1.602903005013737e-06</v>
+        <v>0.0001799251474600809</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>17.21527447538826</v>
+        <v>11.94617561899735</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001799251474600809</v>
+        <v>1.238848818635631</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>11.94617561899735</v>
+        <v>0.02567731785638491</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.238848818635631</v>
+        <v>3.004788764602339</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.02567731785638491</v>
+        <v>0.9551563532354308</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.004788764602339</v>
+        <v>1.669587409998817</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9551563532354308</v>
+        <v>19</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.669587409998817</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.3001662940606217</v>
       </c>
     </row>
@@ -6255,7 +6147,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.637709263763026</v>
+        <v>1.654348712107599</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.072554268439792</v>
@@ -6344,7 +6236,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.68783874048161</v>
+        <v>1.700550272608212</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.140285218634942</v>
@@ -6433,7 +6325,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.697904429480868</v>
+        <v>1.712704108054283</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.029740972309739</v>
@@ -6522,7 +6414,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.725353297649241</v>
+        <v>1.742282886459246</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.09490274362539</v>
@@ -6611,7 +6503,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.719217957913461</v>
+        <v>1.730477151002681</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.110631832852704</v>
@@ -6700,7 +6592,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.803719668398</v>
+        <v>1.811528752133372</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.087471792203949</v>
@@ -6789,7 +6681,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.833953721054491</v>
+        <v>1.839705469198378</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.108953131778278</v>
@@ -6878,7 +6770,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.835171149863356</v>
+        <v>1.837673843026807</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.172134399051475</v>
@@ -6967,7 +6859,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.838026210543199</v>
+        <v>1.833953523719549</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.135895743661874</v>
@@ -7056,7 +6948,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.840912400424353</v>
+        <v>1.830561269023724</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.25165924511733</v>
@@ -7145,7 +7037,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.783972607456999</v>
+        <v>1.780066579217649</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.725535039411582</v>
@@ -7234,7 +7126,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.777744486587739</v>
+        <v>1.7672549298308</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.489610031189492</v>
@@ -7323,7 +7215,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.708125771469774</v>
+        <v>1.70769546449969</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.331593720521565</v>
@@ -7412,7 +7304,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.70506552816894</v>
+        <v>1.707754215258033</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.409810608108184</v>
@@ -7501,7 +7393,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.709181134600579</v>
+        <v>1.714383855132483</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.393175138114378</v>
@@ -7590,7 +7482,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.707387131836272</v>
+        <v>1.71947002825818</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.451385458501913</v>
@@ -7679,7 +7571,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.705241165268176</v>
+        <v>1.709759802442417</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.394258728635383</v>
@@ -7768,7 +7660,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.713612640165784</v>
+        <v>1.712011360310607</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.450919578860706</v>
@@ -7857,7 +7749,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.706943377258115</v>
+        <v>1.701055800527336</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.43351574338655</v>
@@ -7946,7 +7838,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.731935472676738</v>
+        <v>1.727165720811821</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.411121959181372</v>
@@ -8035,7 +7927,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.737994530100283</v>
+        <v>1.731957120205535</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.447946902145321</v>
@@ -8124,7 +8016,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.744699876865919</v>
+        <v>1.743206537635262</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.490393513932846</v>
@@ -8213,7 +8105,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.740696779174174</v>
+        <v>1.746444636565653</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.553778602417664</v>
@@ -8302,7 +8194,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.724083993818032</v>
+        <v>1.73572534078863</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.544409147118046</v>
@@ -8391,7 +8283,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.719927392489463</v>
+        <v>1.735514192131826</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.634355708292201</v>
@@ -8480,7 +8372,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.759354266740729</v>
+        <v>1.768436575095451</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.48753994392636</v>
@@ -8569,7 +8461,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.786693351943774</v>
+        <v>1.791449487943718</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.415199960711114</v>
@@ -8658,7 +8550,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.848157121124659</v>
+        <v>1.848517200024766</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.095888643525916</v>
@@ -8747,7 +8639,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.852449311370082</v>
+        <v>1.852421086607839</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.335190422570641</v>
@@ -8836,7 +8728,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.819481540407339</v>
+        <v>1.821179639513705</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.993358194537807</v>
@@ -8925,7 +8817,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.832552099995479</v>
+        <v>1.829451326588622</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.028187626862382</v>
@@ -9014,7 +8906,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.831701329553786</v>
+        <v>1.835675305601724</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.21908808104904</v>
@@ -9103,7 +8995,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.833666125191536</v>
+        <v>1.844468502213001</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.282279724675245</v>
@@ -9192,7 +9084,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.841015836341203</v>
+        <v>1.859076948592897</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.483802443888233</v>
@@ -9281,7 +9173,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.819029276310301</v>
+        <v>1.835415273064342</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.50386858842431</v>
@@ -9370,7 +9262,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.823868307535045</v>
+        <v>1.844735009885932</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.054143014624703</v>
@@ -9459,7 +9351,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.819516481179852</v>
+        <v>1.842268334329007</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.27289519699257</v>
@@ -9548,7 +9440,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.836368650786799</v>
+        <v>1.854705420830965</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.878533975285432</v>
@@ -9637,7 +9529,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.848988176910559</v>
+        <v>1.864916888873875</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.817550693453144</v>
@@ -9726,7 +9618,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.853235296039812</v>
+        <v>1.870906487957934</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.939718279900634</v>
@@ -9815,7 +9707,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.851417861214377</v>
+        <v>1.874613233616035</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.045316473542685</v>
@@ -9904,7 +9796,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.856417851030278</v>
+        <v>1.879714777121726</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.797251567756935</v>
@@ -9993,7 +9885,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.85720147934817</v>
+        <v>1.878528751561292</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.74458828940349</v>
@@ -10082,7 +9974,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.859870113364088</v>
+        <v>1.875612309918574</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.046941924591856</v>
@@ -10171,7 +10063,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.891712146231934</v>
+        <v>1.906371067654334</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.729570176995294</v>
@@ -10260,7 +10152,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.863934503307848</v>
+        <v>1.885495539274366</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.964392970301168</v>
@@ -10349,7 +10241,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.870118211945428</v>
+        <v>1.886324993265022</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.918207331277123</v>
@@ -10438,7 +10330,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.862542197541348</v>
+        <v>1.861267354989642</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.660680264328732</v>
@@ -10527,7 +10419,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.841005313211471</v>
+        <v>1.84849637386296</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.791728766975617</v>
@@ -10616,7 +10508,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.862868519639176</v>
+        <v>1.866410702103284</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.592383389961507</v>
@@ -10705,7 +10597,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.865979630074056</v>
+        <v>1.873069636425658</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.770249060352445</v>
@@ -10794,7 +10686,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.869498584203545</v>
+        <v>1.873634249159414</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.898875571504752</v>
@@ -10883,7 +10775,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.878000540980786</v>
+        <v>1.87375316015026</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.704490399230018</v>
@@ -10972,7 +10864,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.879454630758787</v>
+        <v>1.878674364864422</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.118464892725094</v>
@@ -11061,7 +10953,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.882488001245195</v>
+        <v>1.886310327411279</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.306229091844923</v>
@@ -11150,7 +11042,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.885032001230622</v>
+        <v>1.888954144055579</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.245603238512433</v>
@@ -11239,7 +11131,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.886479946260521</v>
+        <v>1.891745021453576</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.136809812719246</v>
@@ -11328,7 +11220,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.886997544417135</v>
+        <v>1.898097611816596</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.24563026857509</v>
@@ -11417,7 +11309,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.837152637626946</v>
+        <v>1.857773064820957</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.131124586477179</v>
@@ -11506,7 +11398,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.833392053829901</v>
+        <v>1.85508185540941</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.202931158058961</v>
@@ -11595,7 +11487,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.860722306089607</v>
+        <v>1.881049245978329</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.28683841693008</v>
@@ -11881,7 +11773,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.571320850843627</v>
+        <v>1.559394772788661</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.664425618523309</v>
@@ -11970,7 +11862,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.582220834869221</v>
+        <v>1.572150775790252</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.701273569031769</v>
@@ -12059,7 +11951,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.601532254451867</v>
+        <v>1.593567189042422</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.642058267063264</v>
@@ -12148,7 +12040,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.62425970571152</v>
+        <v>1.616838206796108</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.637144136667651</v>
@@ -12237,7 +12129,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.61920563670783</v>
+        <v>1.61396082215515</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.500865585209355</v>
@@ -12326,7 +12218,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.647446883807533</v>
+        <v>1.634990171301496</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.272981748054314</v>
@@ -12415,7 +12307,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.645551991012467</v>
+        <v>1.635071882732366</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.638210047599933</v>
@@ -12504,7 +12396,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.640542816251748</v>
+        <v>1.632130189762331</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.48387364538497</v>
@@ -12593,7 +12485,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.635779313425458</v>
+        <v>1.622259238807106</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.470908284561686</v>
@@ -12682,7 +12574,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.630803217247733</v>
+        <v>1.613944983872156</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.693230862148923</v>
@@ -12771,7 +12663,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.593503634644494</v>
+        <v>1.578321726903494</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.287341118952566</v>
@@ -12860,7 +12752,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.606468474961298</v>
+        <v>1.594752231541565</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.266190461853805</v>
@@ -12949,7 +12841,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.575239073243287</v>
+        <v>1.579102184959059</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.342738449115312</v>
@@ -13038,7 +12930,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.569958049930618</v>
+        <v>1.572362815951472</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.319623547929998</v>
@@ -13127,7 +13019,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.574814919194088</v>
+        <v>1.578128125814129</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.379125543148949</v>
@@ -13216,7 +13108,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.564073177744638</v>
+        <v>1.562725982250059</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.401540216345556</v>
@@ -13305,7 +13197,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.571513974560853</v>
+        <v>1.567632707613115</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.380303286635435</v>
@@ -13394,7 +13286,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.561477952271313</v>
+        <v>1.556582183265251</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.436084847452943</v>
@@ -13483,7 +13375,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.566416048449995</v>
+        <v>1.56101618506518</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.324966269414791</v>
@@ -13572,7 +13464,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.561630195075037</v>
+        <v>1.555707733520585</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.447925342690727</v>
@@ -13661,7 +13553,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.565144437735216</v>
+        <v>1.560337880449042</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.3838042019362</v>
@@ -13750,7 +13642,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.57588741861996</v>
+        <v>1.576117128988415</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.328197153880418</v>
@@ -13839,7 +13731,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.563260626689656</v>
+        <v>1.567148101517128</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.531942725820453</v>
@@ -13928,7 +13820,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.527357450732408</v>
+        <v>1.537412002603208</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.322715640161452</v>
@@ -14017,7 +13909,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.527615451898553</v>
+        <v>1.541825912266233</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.382137111343217</v>
@@ -14106,7 +13998,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.542801799703695</v>
+        <v>1.558118727087765</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.216220515734229</v>
@@ -14195,7 +14087,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.558031736564326</v>
+        <v>1.565053025148985</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.122264101137051</v>
@@ -14284,7 +14176,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.56592233923128</v>
+        <v>1.565308273386316</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.144781813822239</v>
@@ -14373,7 +14265,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.565336574626385</v>
+        <v>1.557289395297135</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.112310180191624</v>
@@ -14462,7 +14354,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.525280056543038</v>
+        <v>1.521471178815043</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.151446207023267</v>
@@ -14551,7 +14443,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.52670193597966</v>
+        <v>1.52712176830513</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.109850111567494</v>
@@ -14640,7 +14532,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.512229752281231</v>
+        <v>1.513151894811532</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.11338623927177</v>
@@ -14729,7 +14621,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.508550688346542</v>
+        <v>1.510262569112017</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.128707458332874</v>
@@ -14818,7 +14710,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.502774666900227</v>
+        <v>1.506255300872117</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.181074569395509</v>
@@ -14907,7 +14799,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.5103184993687</v>
+        <v>1.511497164722481</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.115150756568725</v>
@@ -14996,7 +14888,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.510775509528246</v>
+        <v>1.511640733234241</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.104224219848517</v>
@@ -15085,7 +14977,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.511093663888547</v>
+        <v>1.510212864963512</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.238574156766129</v>
@@ -15174,7 +15066,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.516698762072564</v>
+        <v>1.504630773712419</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.951894544975759</v>
@@ -15263,7 +15155,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.552009868791989</v>
+        <v>1.542587302512794</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.262099034073099</v>
@@ -15352,7 +15244,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.549229613598671</v>
+        <v>1.538366428830232</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.311005465139913</v>
@@ -15441,7 +15333,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.556583967067637</v>
+        <v>1.541997089956396</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.237554073104074</v>
@@ -15530,7 +15422,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.554179777117979</v>
+        <v>1.540777752880591</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.2838746902184</v>
@@ -15619,7 +15511,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.560658530574729</v>
+        <v>1.551776134375637</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.222646841584837</v>
@@ -15708,7 +15600,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.567220237614068</v>
+        <v>1.56440608921489</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.269688900099302</v>
@@ -15797,7 +15689,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.607389466221889</v>
+        <v>1.601172614120116</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.210213603995503</v>
@@ -15886,7 +15778,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.60587036809588</v>
+        <v>1.600695801560724</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.295379551349073</v>
@@ -15975,7 +15867,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.620065867041274</v>
+        <v>1.612467681347624</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.201979446257034</v>
@@ -16064,7 +15956,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.639903079421897</v>
+        <v>1.623253962561826</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.171336318479651</v>
@@ -16153,7 +16045,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.632934810621624</v>
+        <v>1.614823493158883</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.248418711027746</v>
@@ -16242,7 +16134,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.635329056528271</v>
+        <v>1.62052398095384</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.148182865146596</v>
@@ -16331,7 +16223,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.626657529226517</v>
+        <v>1.612066008146044</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.16244739382683</v>
@@ -16420,7 +16312,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.633628978800854</v>
+        <v>1.614906128989451</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.053184991669224</v>
@@ -16509,7 +16401,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.666230835918561</v>
+        <v>1.64763982774515</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.126140450823772</v>
@@ -16598,7 +16490,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.669040832321049</v>
+        <v>1.651935162090484</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.034843977714807</v>
@@ -16687,7 +16579,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.669457069550586</v>
+        <v>1.650234509353006</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.044948773893886</v>
@@ -16776,7 +16668,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.673157101536534</v>
+        <v>1.657269726441607</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.266756072143377</v>
@@ -16865,7 +16757,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.668325551593576</v>
+        <v>1.65354191050897</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.339214105302349</v>
@@ -16954,7 +16846,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.655156386936964</v>
+        <v>1.633033207212929</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.208529390162306</v>
@@ -17043,7 +16935,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.625694759811695</v>
+        <v>1.605909845037727</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.778798881039926</v>
@@ -17132,7 +17024,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.616446859423825</v>
+        <v>1.599770140729703</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.108257210236434</v>
@@ -17221,7 +17113,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.631941265196845</v>
+        <v>1.612751884857665</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.945079772171716</v>
@@ -17507,7 +17399,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.61030671881796</v>
+        <v>1.6123261310246</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.396880860837441</v>
@@ -17596,7 +17488,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.634607038200442</v>
+        <v>1.635634956737616</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.257412394179133</v>
@@ -17685,7 +17577,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.654825550514831</v>
+        <v>1.651842770484599</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.040596674068002</v>
@@ -17774,7 +17666,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.669801155905067</v>
+        <v>1.66490500419321</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.239594293669708</v>
@@ -17863,7 +17755,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.669270308966119</v>
+        <v>1.662350690780079</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.996560314632819</v>
@@ -17952,7 +17844,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.677909052214903</v>
+        <v>1.666578801696779</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.857859642519902</v>
@@ -18041,7 +17933,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.702641283288934</v>
+        <v>1.687295098730536</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.253772555696165</v>
@@ -18130,7 +18022,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.685238038432822</v>
+        <v>1.668682415239465</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.221337812189506</v>
@@ -18219,7 +18111,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.701309271735776</v>
+        <v>1.679553257129402</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.475654079675377</v>
@@ -18308,7 +18200,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.702833324219531</v>
+        <v>1.676633619794132</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.308931285422289</v>
@@ -18397,7 +18289,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.668568103472976</v>
+        <v>1.640533811757848</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.56861613457031</v>
@@ -18486,7 +18378,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.665183664821989</v>
+        <v>1.638292527491502</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.610257538670017</v>
@@ -18575,7 +18467,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.62502713889695</v>
+        <v>1.603902778362129</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.776614824841007</v>
@@ -18664,7 +18556,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.61164911854193</v>
+        <v>1.596998607711306</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.633555608327813</v>
@@ -18753,7 +18645,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.615975200356438</v>
+        <v>1.601334971057714</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.596908907095506</v>
@@ -18842,7 +18734,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.616783772897538</v>
+        <v>1.602515371688646</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.586425337132784</v>
@@ -18931,7 +18823,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.618823108272896</v>
+        <v>1.605172937050861</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.662908389714584</v>
@@ -19020,7 +18912,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.618593389345895</v>
+        <v>1.607056265112374</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.642549408672919</v>
@@ -19109,7 +19001,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.619493913103245</v>
+        <v>1.604691524502527</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.579054177407183</v>
@@ -19198,7 +19090,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.636990132134635</v>
+        <v>1.626031801941302</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.792498648447673</v>
@@ -19287,7 +19179,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.649689180889443</v>
+        <v>1.637359800192412</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.601369409134708</v>
@@ -19376,7 +19268,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.65070994624293</v>
+        <v>1.643582554820632</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.652166666270757</v>
@@ -19465,7 +19357,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.658803119580686</v>
+        <v>1.654207708741505</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.629421015363345</v>
@@ -19554,7 +19446,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.65664633443856</v>
+        <v>1.657745821868669</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.617434787934665</v>
@@ -19643,7 +19535,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.649311180148147</v>
+        <v>1.655129175400939</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.816936077515896</v>
@@ -19732,7 +19624,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.675580892332711</v>
+        <v>1.680143446273294</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.776677113316739</v>
@@ -19821,7 +19713,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.690189011438422</v>
+        <v>1.696024996095951</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.642330033919247</v>
@@ -19910,7 +19802,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.72971968991072</v>
+        <v>1.72847604279151</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.124177189644566</v>
@@ -19999,7 +19891,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.738083286332531</v>
+        <v>1.733853697430156</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.014903124521817</v>
@@ -20088,7 +19980,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.707792450071365</v>
+        <v>1.704119850667282</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.008913189071224</v>
@@ -20177,7 +20069,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.694381743744796</v>
+        <v>1.699400393162224</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.928311267837901</v>
@@ -20266,7 +20158,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.690201803803698</v>
+        <v>1.695033775951145</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.035371908623555</v>
@@ -20355,7 +20247,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.698352932759518</v>
+        <v>1.702758359237995</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.069466175858823</v>
@@ -20444,7 +20336,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.71152251262147</v>
+        <v>1.721390676628068</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.058511544390316</v>
@@ -20533,7 +20425,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.692032854140638</v>
+        <v>1.698868138037541</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.845017117430383</v>
@@ -20622,7 +20514,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.692683887474012</v>
+        <v>1.702764338063034</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.887023816470994</v>
@@ -20711,7 +20603,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.689704284251891</v>
+        <v>1.701300544204578</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.03960069936262</v>
@@ -20800,7 +20692,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.693279392895771</v>
+        <v>1.696674345770021</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.789747383631937</v>
@@ -20889,7 +20781,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.693212155556793</v>
+        <v>1.697258332905313</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.217263678051214</v>
@@ -20978,7 +20870,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.697475440164149</v>
+        <v>1.701300349573893</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.229651756513213</v>
@@ -21067,7 +20959,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.701351776702041</v>
+        <v>1.703431881067549</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.182771089840427</v>
@@ -21156,7 +21048,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.699650508721823</v>
+        <v>1.702994929254995</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.20151971654885</v>
@@ -21245,7 +21137,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.700745923899783</v>
+        <v>1.7005418952885</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.201682845272022</v>
@@ -21334,7 +21226,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.6987102511825</v>
+        <v>1.692935887916263</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.296399653616056</v>
@@ -21423,7 +21315,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.732498776557614</v>
+        <v>1.722986954097873</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.349773095514316</v>
@@ -21512,7 +21404,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.721901029953907</v>
+        <v>1.712290178129325</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.198103849976084</v>
@@ -21601,7 +21493,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.726288942749227</v>
+        <v>1.716070180869707</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.211444260797208</v>
@@ -21690,7 +21582,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.721943665801444</v>
+        <v>1.70545574425086</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.213038724724955</v>
@@ -21779,7 +21671,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.705511748646943</v>
+        <v>1.692713525740891</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.196830734583495</v>
@@ -21868,7 +21760,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.709628001947788</v>
+        <v>1.700454370365138</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.186952468382287</v>
@@ -21957,7 +21849,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.698659153273557</v>
+        <v>1.690735511333174</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.183543585163315</v>
@@ -22046,7 +21938,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.701348234828576</v>
+        <v>1.692205224113521</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.200850218098472</v>
@@ -22135,7 +22027,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.7107489164478</v>
+        <v>1.703969156196823</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.199525968998524</v>
@@ -22224,7 +22116,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.71480126313165</v>
+        <v>1.70439610658973</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.947367255858282</v>
@@ -22313,7 +22205,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.71682818394475</v>
+        <v>1.709618323653846</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.107889894624272</v>
@@ -22402,7 +22294,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.727611995526781</v>
+        <v>1.722791892419612</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.233660897587906</v>
@@ -22491,7 +22383,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.735334238455779</v>
+        <v>1.73117577028999</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.917319743099025</v>
@@ -22580,7 +22472,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.736341660136914</v>
+        <v>1.739541358806525</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.290045533763627</v>
@@ -22669,7 +22561,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.723412323780864</v>
+        <v>1.725397189809513</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.271215981096423</v>
@@ -22758,7 +22650,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.719887080507302</v>
+        <v>1.721334642525265</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.969898853725801</v>
@@ -22847,7 +22739,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.732827675419298</v>
+        <v>1.735923382303191</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.367029187246301</v>
@@ -23133,7 +23025,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.555673786809469</v>
+        <v>1.571763542743662</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.370340247510135</v>
@@ -23222,7 +23114,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.576329383208475</v>
+        <v>1.589536128375489</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.274583077665268</v>
@@ -23311,7 +23203,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.585075984676176</v>
+        <v>1.589665536814195</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.201349971504236</v>
@@ -23400,7 +23292,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.553660551155115</v>
+        <v>1.574342565484044</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.320143235927249</v>
@@ -23489,7 +23381,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.571821593067875</v>
+        <v>1.588531218167742</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.283183695420786</v>
@@ -23578,7 +23470,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.553580838782393</v>
+        <v>1.572527234521383</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.207541128427926</v>
@@ -23667,7 +23559,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.563445952279147</v>
+        <v>1.583088135266117</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.249730355209639</v>
@@ -23756,7 +23648,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.552723929071057</v>
+        <v>1.570366737879777</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.364239069604063</v>
@@ -23845,7 +23737,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.517321289602289</v>
+        <v>1.541137918226889</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.281212133045234</v>
@@ -23934,7 +23826,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.534525116264279</v>
+        <v>1.558094436730451</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.1242775181079</v>
@@ -24023,7 +23915,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.52698955835423</v>
+        <v>1.548551855580715</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.279837010837404</v>
@@ -24112,7 +24004,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.553714153152905</v>
+        <v>1.567641377254682</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.249249579793219</v>
@@ -24201,7 +24093,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.539908750502443</v>
+        <v>1.542850035339172</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.301260802628268</v>
@@ -24290,7 +24182,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.494578826704209</v>
+        <v>1.516634349012229</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.327379020493745</v>
@@ -24379,7 +24271,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.484437946741898</v>
+        <v>1.509816342140227</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.295203325657012</v>
@@ -24468,7 +24360,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.484526361104707</v>
+        <v>1.508029154239354</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.353231976954199</v>
@@ -24557,7 +24449,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.504040467384525</v>
+        <v>1.528222728088237</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.302414943231442</v>
@@ -24646,7 +24538,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.529271015144217</v>
+        <v>1.554785773211184</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.104958387041751</v>
@@ -24735,7 +24627,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.540102236508148</v>
+        <v>1.560893239072147</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.475159931259433</v>
@@ -24824,7 +24716,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.500182491747314</v>
+        <v>1.526155226881402</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.527950304561638</v>
@@ -24913,7 +24805,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.517627481429612</v>
+        <v>1.547117906382233</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.437229589135518</v>
@@ -25002,7 +24894,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.525183902215307</v>
+        <v>1.554857960842045</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.487496601003205</v>
@@ -25091,7 +24983,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.536117045857654</v>
+        <v>1.567532432440492</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.330992152859745</v>
@@ -25180,7 +25072,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.570893366103436</v>
+        <v>1.595157644813192</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.411537865626412</v>
@@ -25269,7 +25161,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.520096026668525</v>
+        <v>1.548931768205041</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.353460745113868</v>
@@ -25358,7 +25250,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.526495012871975</v>
+        <v>1.558219991425632</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.434683034488135</v>
@@ -25447,7 +25339,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.543482156121755</v>
+        <v>1.577833631806072</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.366665922389543</v>
@@ -25536,7 +25428,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.578654159028095</v>
+        <v>1.611018823861139</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.043737015630735</v>
@@ -25625,7 +25517,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.596857463204653</v>
+        <v>1.62251653866562</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.274652269046328</v>
@@ -25714,7 +25606,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.592208612416802</v>
+        <v>1.616051977809593</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.383519500229794</v>
@@ -25803,7 +25695,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.542903539695015</v>
+        <v>1.570148923945636</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.351200512742616</v>
@@ -25892,7 +25784,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.539712013233779</v>
+        <v>1.566045273049237</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.348486614283578</v>
@@ -25981,7 +25873,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.547570847526494</v>
+        <v>1.572572505327235</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.35439327069301</v>
@@ -26070,7 +25962,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.55557359279618</v>
+        <v>1.581798029484071</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.356559331200621</v>
@@ -26159,7 +26051,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.575241000766267</v>
+        <v>1.595540646002279</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.221171563635686</v>
@@ -26248,7 +26140,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.558875054272416</v>
+        <v>1.581885134609952</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.369220893371601</v>
@@ -26337,7 +26229,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.557951759216001</v>
+        <v>1.583341100224323</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.292332951627812</v>
@@ -26426,7 +26318,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.545035363413314</v>
+        <v>1.572242742839344</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.367218203914294</v>
@@ -26515,7 +26407,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.558567478121772</v>
+        <v>1.583012073341127</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.282178908989779</v>
@@ -26604,7 +26496,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.601990388273614</v>
+        <v>1.622495152469646</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.306678950537012</v>
@@ -26693,7 +26585,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.613683201818556</v>
+        <v>1.633868602516189</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.235709771423679</v>
@@ -26782,7 +26674,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.610372207823121</v>
+        <v>1.635208565057195</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.262603489777402</v>
@@ -26871,7 +26763,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.557512912977641</v>
+        <v>1.578238035949724</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.317322275508359</v>
@@ -26960,7 +26852,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.559954074516571</v>
+        <v>1.582351264246582</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.370903107128188</v>
@@ -27049,7 +26941,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.567580228258384</v>
+        <v>1.593128020057492</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.265046246285537</v>
@@ -27138,7 +27030,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.607954039140371</v>
+        <v>1.629515274570098</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.294159537646455</v>
@@ -27227,7 +27119,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.599898314960384</v>
+        <v>1.622967974846272</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.27505126335578</v>
@@ -27316,7 +27208,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.590565525278657</v>
+        <v>1.608806247481627</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.291392111317781</v>
@@ -27405,7 +27297,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.556375587030093</v>
+        <v>1.57906061589348</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.192293107061156</v>
@@ -27494,7 +27386,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.584290994296806</v>
+        <v>1.605735137086784</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.300595763230344</v>
@@ -27583,7 +27475,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.580344123680103</v>
+        <v>1.600518939583211</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.271896907008309</v>
@@ -27672,7 +27564,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.569660650403685</v>
+        <v>1.591360685029713</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.349919171174106</v>
@@ -27761,7 +27653,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.574623102411976</v>
+        <v>1.600231343197043</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.269061431624708</v>
@@ -27850,7 +27742,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.570603754049429</v>
+        <v>1.602052010037067</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.417363402514029</v>
@@ -27939,7 +27831,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.536182811635326</v>
+        <v>1.572117822182145</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.399199012135899</v>
@@ -28028,7 +27920,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.53120254231693</v>
+        <v>1.567113135925055</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.442413321476827</v>
@@ -28117,7 +28009,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.544293610536554</v>
+        <v>1.581445022201114</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.098204862084013</v>
@@ -28206,7 +28098,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.5659217985844</v>
+        <v>1.607974629726119</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.430265521977502</v>
@@ -28295,7 +28187,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.557948532645181</v>
+        <v>1.597373445516231</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.369215616108647</v>
@@ -28384,7 +28276,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.558359532113519</v>
+        <v>1.592545231823368</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.296560231109421</v>
@@ -28473,7 +28365,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.559591240074786</v>
+        <v>1.595742041650901</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.328802403788357</v>
@@ -28759,7 +28651,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.645142479799823</v>
+        <v>1.648419919657625</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.888641917356475</v>
@@ -28848,7 +28740,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.653408074856112</v>
+        <v>1.65545284265021</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.756105902848232</v>
@@ -28937,7 +28829,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.680173077735776</v>
+        <v>1.681315911575606</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.785005395974307</v>
@@ -29026,7 +28918,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.693999821765716</v>
+        <v>1.694439936865609</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.80254027819654</v>
@@ -29115,7 +29007,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.696406897978086</v>
+        <v>1.696313709701409</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.782968527325835</v>
@@ -29204,7 +29096,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.718553410508565</v>
+        <v>1.718657160098557</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.574196466266163</v>
@@ -29293,7 +29185,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.739948103447069</v>
+        <v>1.736142796737822</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.260844522062613</v>
@@ -29382,7 +29274,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.743562396333455</v>
+        <v>1.737408618720989</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.96363089772776</v>
@@ -29471,7 +29363,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.740409626336693</v>
+        <v>1.730987890892652</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.140764697878213</v>
@@ -29560,7 +29452,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.741073820152149</v>
+        <v>1.733727979849466</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.930427173238729</v>
@@ -29649,7 +29541,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.729995296053172</v>
+        <v>1.71466266492187</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.835484138039344</v>
@@ -29738,7 +29630,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.733529436038499</v>
+        <v>1.709981423603275</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.818802776254583</v>
@@ -29827,7 +29719,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.696742162162793</v>
+        <v>1.679166992302388</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.757088095617264</v>
@@ -29916,7 +29808,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.696527072655073</v>
+        <v>1.679513696386879</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.937069540184736</v>
@@ -30005,7 +29897,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.694922048675466</v>
+        <v>1.67847060323885</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.741069137996943</v>
@@ -30094,7 +29986,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.687042305835796</v>
+        <v>1.670747726092628</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.946156238112343</v>
@@ -30183,7 +30075,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.691676814114895</v>
+        <v>1.677662121672984</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.733360034615228</v>
@@ -30272,7 +30164,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.678913749733735</v>
+        <v>1.658699008860443</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.917987214380106</v>
@@ -30361,7 +30253,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.673767889185899</v>
+        <v>1.653109948413737</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.989701244305401</v>
@@ -30450,7 +30342,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.650877879080482</v>
+        <v>1.636859772119356</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.843779729362081</v>
@@ -30539,7 +30431,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.651609319975737</v>
+        <v>1.635579806412423</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.06080312762359</v>
@@ -30628,7 +30520,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.65168138250224</v>
+        <v>1.637370836399944</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.025162414036385</v>
@@ -30717,7 +30609,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.653141269812553</v>
+        <v>1.636754604681164</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.019398297747247</v>
@@ -30806,7 +30698,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.625551467734019</v>
+        <v>1.61695561515423</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.706272252959137</v>
@@ -30895,7 +30787,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.618528304233727</v>
+        <v>1.612103436380082</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.74422864101854</v>
@@ -30984,7 +30876,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.614425442568767</v>
+        <v>1.615650512044227</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.665695564982726</v>
@@ -31073,7 +30965,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.617985312785702</v>
+        <v>1.621533065832211</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.612406091012473</v>
@@ -31162,7 +31054,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.639522100828808</v>
+        <v>1.642476994538286</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.45277294457487</v>
@@ -31251,7 +31143,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.643235837987779</v>
+        <v>1.641786971589262</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.592481534293194</v>
@@ -31340,7 +31232,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.603953942578957</v>
+        <v>1.604212967992685</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.759413357174516</v>
@@ -31429,7 +31321,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.605504048994211</v>
+        <v>1.606794003612389</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.594546592020457</v>
@@ -31518,7 +31410,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.592173549822832</v>
+        <v>1.594901798945511</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.530695104836951</v>
@@ -31607,7 +31499,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.596935534517456</v>
+        <v>1.599110882631536</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.57978663501628</v>
@@ -31696,7 +31588,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.590114570906211</v>
+        <v>1.590881153873142</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.625791079232375</v>
@@ -31785,7 +31677,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.605201490317097</v>
+        <v>1.605017207891954</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.49913839097488</v>
@@ -31874,7 +31766,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.608948699778695</v>
+        <v>1.611923765481756</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.515991622374864</v>
@@ -31963,7 +31855,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.609831562855536</v>
+        <v>1.613009773176972</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.65583286997054</v>
@@ -32052,7 +31944,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.617936909924812</v>
+        <v>1.61646439277638</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.367702922035579</v>
@@ -32141,7 +32033,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.693711838993621</v>
+        <v>1.67597846328594</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.367424879382798</v>
@@ -32230,7 +32122,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.69761754489847</v>
+        <v>1.680155969832195</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.366370603206328</v>
@@ -32319,7 +32211,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.701742743276645</v>
+        <v>1.681800915437549</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.367623619059861</v>
@@ -32408,7 +32300,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.709528628147514</v>
+        <v>1.687524553085813</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.369233467671114</v>
@@ -32497,7 +32389,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.707274304090789</v>
+        <v>1.686664762983636</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.368483103192691</v>
@@ -32586,7 +32478,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.707356835378158</v>
+        <v>1.686677221604654</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.362191964082102</v>
@@ -32675,7 +32567,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.737509495826084</v>
+        <v>1.71427520086849</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.360374235742726</v>
@@ -32764,7 +32656,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.738362382021947</v>
+        <v>1.71441320228234</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.362477959526496</v>
@@ -32853,7 +32745,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.744343003334362</v>
+        <v>1.718013457418902</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.361037828014091</v>
@@ -32942,7 +32834,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.751156379295673</v>
+        <v>1.71983535143337</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.358423886267004</v>
@@ -33031,7 +32923,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.748003733960842</v>
+        <v>1.720277131181136</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.357126820202757</v>
@@ -33120,7 +33012,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.752585692767969</v>
+        <v>1.723651434860862</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.35747922449496</v>
@@ -33209,7 +33101,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.746484436165855</v>
+        <v>1.717953096970332</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.358007280545394</v>
@@ -33298,7 +33190,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.746962311125372</v>
+        <v>1.718294091251763</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.355082665722562</v>
@@ -33387,7 +33279,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.754413866955589</v>
+        <v>1.725202568391378</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.355095321923069</v>
@@ -33476,7 +33368,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.745340905505692</v>
+        <v>1.727452706084302</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.3506044227821</v>
@@ -33565,7 +33457,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.735031246391813</v>
+        <v>1.721200502123855</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.240318958684949</v>
@@ -33654,7 +33546,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.737815695098111</v>
+        <v>1.726520049904987</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.11068720129965</v>
@@ -33743,7 +33635,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.742467784951881</v>
+        <v>1.730458210774757</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.060974363098993</v>
@@ -33832,7 +33724,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.742577438407186</v>
+        <v>1.730858157331285</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.428810502749184</v>
@@ -33921,7 +33813,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.72467953564695</v>
+        <v>1.716312910997938</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.139848871265821</v>
@@ -34010,7 +33902,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.725789685510739</v>
+        <v>1.722661857429022</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.164924977495516</v>
@@ -34099,7 +33991,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.736970384895663</v>
+        <v>1.736554015304663</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.405259814417345</v>
@@ -34385,7 +34277,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.629914091093349</v>
+        <v>1.639041890984088</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.908478402114658</v>
@@ -34474,7 +34366,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.661932957283401</v>
+        <v>1.669472163410134</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.341798658538806</v>
@@ -34563,7 +34455,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.670549896442092</v>
+        <v>1.678217218994155</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.919449008491717</v>
@@ -34652,7 +34544,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.692871173892906</v>
+        <v>1.706484513888663</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.021991168933555</v>
@@ -34741,7 +34633,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.688004791710701</v>
+        <v>1.697820220864297</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.201864077907938</v>
@@ -34830,7 +34722,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.694459749686259</v>
+        <v>1.708471007070927</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.075030040856199</v>
@@ -34919,7 +34811,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.702779115035931</v>
+        <v>1.714752449059582</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.801705253885413</v>
@@ -35008,7 +34900,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.71790998980868</v>
+        <v>1.726288383951966</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.077976088220937</v>
@@ -35097,7 +34989,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.714353422123335</v>
+        <v>1.722610981956041</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.266328810004361</v>
@@ -35186,7 +35078,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.717411586399438</v>
+        <v>1.723493697320085</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.977630306313773</v>
@@ -35275,7 +35167,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.697752642339681</v>
+        <v>1.709449146207291</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.924546013744841</v>
@@ -35364,7 +35256,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.665916913132506</v>
+        <v>1.680148105333022</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.962973753228593</v>
@@ -35453,7 +35345,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.618434914335138</v>
+        <v>1.63838582524716</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.449331377937744</v>
@@ -35542,7 +35434,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.61403738423245</v>
+        <v>1.636212998754571</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.345355158082842</v>
@@ -35631,7 +35523,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.60723056195801</v>
+        <v>1.635237505375718</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.470755246271203</v>
@@ -35720,7 +35612,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.614244238091179</v>
+        <v>1.64229373173624</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.306154321124365</v>
@@ -35809,7 +35701,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.619392957496011</v>
+        <v>1.648003340385977</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.406840091737268</v>
@@ -35898,7 +35790,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.622581718123534</v>
+        <v>1.65293415162886</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.556935540726559</v>
@@ -35987,7 +35879,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.624161108758769</v>
+        <v>1.651390048301145</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.46660276919543</v>
@@ -36076,7 +35968,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.644186200948335</v>
+        <v>1.669739066253489</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.471707286038195</v>
@@ -36165,7 +36057,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.651618988218837</v>
+        <v>1.675320537999141</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.472445639269179</v>
@@ -36254,7 +36146,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.660615840488926</v>
+        <v>1.692604300860787</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.471446173676854</v>
@@ -36343,7 +36235,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.65902146861569</v>
+        <v>1.698051014438217</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.601795079043133</v>
@@ -36432,7 +36324,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.64525620476694</v>
+        <v>1.684294592326361</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.534085390374954</v>
@@ -36521,7 +36413,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.645567958725782</v>
+        <v>1.684286451862141</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.595959421225785</v>
@@ -36610,7 +36502,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.660696925064712</v>
+        <v>1.699826057929109</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.564403051584882</v>
@@ -36699,7 +36591,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.699972090865808</v>
+        <v>1.737317051944099</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.406270015464948</v>
@@ -36788,7 +36680,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.751277331940068</v>
+        <v>1.78602688878145</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.261781955686985</v>
@@ -36877,7 +36769,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.750243502317643</v>
+        <v>1.784887515377781</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.24816901031603</v>
@@ -36966,7 +36858,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.734122589449483</v>
+        <v>1.759391801626377</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.995664999730391</v>
@@ -37055,7 +36947,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.730572906038204</v>
+        <v>1.755803836867051</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.976926714737009</v>
@@ -37144,7 +37036,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.730702201484808</v>
+        <v>1.759568649950191</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.490268572141991</v>
@@ -37233,7 +37125,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.731907298103126</v>
+        <v>1.763234202505651</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.095142076421901</v>
@@ -37322,7 +37214,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.730254610508944</v>
+        <v>1.766063752711782</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.085937362259593</v>
@@ -37411,7 +37303,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.715846063038539</v>
+        <v>1.753844868804858</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.362035681698937</v>
@@ -37500,7 +37392,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.717095477457266</v>
+        <v>1.756586583921723</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.970068031289699</v>
@@ -37589,7 +37481,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.703883573727239</v>
+        <v>1.741541182287963</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.866205170955404</v>
@@ -37678,7 +37570,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.706596249640131</v>
+        <v>1.741514258588334</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.417461085707747</v>
@@ -37767,7 +37659,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.710582560808552</v>
+        <v>1.744781482861377</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.007231648864473</v>
@@ -37856,7 +37748,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.706620875669283</v>
+        <v>1.743867777241142</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.96430631359355</v>
@@ -37945,7 +37837,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.702281408297227</v>
+        <v>1.740778905284375</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.972100605213618</v>
@@ -38034,7 +37926,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.693786025984592</v>
+        <v>1.732251182619792</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.906214796614984</v>
@@ -38123,7 +38015,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.688171678085873</v>
+        <v>1.726416266336812</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.763420573843187</v>
@@ -38212,7 +38104,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.689964764779335</v>
+        <v>1.729387600956896</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.911953993704714</v>
@@ -38301,7 +38193,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.705693655193808</v>
+        <v>1.753151663052499</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.85178923011741</v>
@@ -38390,7 +38282,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.687835894081563</v>
+        <v>1.733765345105774</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.894318163014054</v>
@@ -38479,7 +38371,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.684149031167767</v>
+        <v>1.72264762901651</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.972416769109944</v>
@@ -38568,7 +38460,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.674818020748377</v>
+        <v>1.709050538214417</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.756795245775599</v>
@@ -38657,7 +38549,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.652073634014627</v>
+        <v>1.686544277079169</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.756962655098881</v>
@@ -38746,7 +38638,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.663126677016494</v>
+        <v>1.696871592281629</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.738340245138442</v>
@@ -38835,7 +38727,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.664600846266482</v>
+        <v>1.698146018502699</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.976800752071822</v>
@@ -38924,7 +38816,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.663057401511121</v>
+        <v>1.696804245122699</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.799410028778755</v>
@@ -39013,7 +38905,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.669578234533318</v>
+        <v>1.707137714788521</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.912704107981001</v>
@@ -39102,7 +38994,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.681185456102649</v>
+        <v>1.721368481621053</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.223880508728255</v>
@@ -39191,7 +39083,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.681664617466273</v>
+        <v>1.724248833064753</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.115067881904104</v>
@@ -39280,7 +39172,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.686387987020244</v>
+        <v>1.732362916571983</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.407594857823037</v>
@@ -39369,7 +39261,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.692657984903093</v>
+        <v>1.739968683967346</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.314841292417986</v>
@@ -39458,7 +39350,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.685198303438827</v>
+        <v>1.732769695871696</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.00103676286374</v>
@@ -39547,7 +39439,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.652119791915128</v>
+        <v>1.699737307582479</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.252798764415614</v>
@@ -39636,7 +39528,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.641999245314691</v>
+        <v>1.69079310969003</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.02021153880797</v>
@@ -39725,7 +39617,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.66380767761433</v>
+        <v>1.716920018382853</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.112726765418298</v>
